--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F48F6C-1ADB-43AB-932F-7F4F7ECF5950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E9F508-F1A3-4755-8FE5-420B58D5C55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,17 @@
 5、三维仿真中修复无人机角度旋转问题
 6、安装包增加驱动判断，只有没安装驱动电脑才弹出驱动安装界面
 7、重新定义无人机IP及网络配置协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、无人机灯光闪烁状态修改接口参数值
+2、上传舞步前检查三维仿真过程是否完成
+3、上传舞步前检查无人机当前位置是否摆放正确
+4、三维仿真中增加呼吸灯及跑马灯闪烁效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -109,11 +120,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -121,11 +152,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,7 +450,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -431,18 +471,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>45077</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:3" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6">
+        <v>45082</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E9F508-F1A3-4755-8FE5-420B58D5C55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B0C86E-9F2F-4165-81E9-E25A8350DE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,8 +59,12 @@
   <si>
     <t>1、无人机灯光闪烁状态修改接口参数值
 2、上传舞步前检查三维仿真过程是否完成
-3、上传舞步前检查无人机当前位置是否摆放正确
-4、三维仿真中增加呼吸灯及跑马灯闪烁效果</t>
+3、上传舞步前检查三维仿真中是否有碰撞情况
+4、上传舞步前检查无人机当前位置是否摆放正确
+5、增加定桩授时功能
+6、三维仿真中增加灯闪烁效果
+7、三维仿真中增加碰撞弹窗提示
+8、三维仿真中音乐播放增加拖动功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,12 +486,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="6">
-        <v>45082</v>
+        <v>45085</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>6</v>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B0C86E-9F2F-4165-81E9-E25A8350DE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FC3AA4-A270-45A8-8C92-236A144F0CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,7 +64,31 @@
 5、增加定桩授时功能
 6、三维仿真中增加灯闪烁效果
 7、三维仿真中增加碰撞弹窗提示
-8、三维仿真中音乐播放增加拖动功能</t>
+8、三维仿真中音乐播放增加拖动功能
+9、基站标定完成后写入数据到C0基站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、检查舞步时增加碰撞风险检查
+2、blockly中禁止复制右侧python代码
+3、定桩授时前先判断无人机是否连接
+4、起飞前增加定桩授时同步性检查
+5、增加拖拽文件到软件中打开，项目文件或文件夹，或者音乐文件
+6、暂时屏蔽角度旋转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、三维仿真中暂时去掉碰撞提示
+2、三维仿真中音乐播放进度条拖动时不改变播放状态
+3、增加无人机固件更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -486,15 +510,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="128.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="6">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>45097</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45106</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FC3AA4-A270-45A8-8C92-236A144F0CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1C6FAB-F4D4-4E74-A4A6-5808CAFB4BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,10 @@
   <si>
     <t>1、三维仿真中暂时去掉碰撞提示
 2、三维仿真中音乐播放进度条拖动时不改变播放状态
-3、增加无人机固件更新</t>
+3、增加无人机固件更新
+4、增加积木块编程错误时闪烁效果
+5、增加降落位置碰撞风险提示
+6、修改程序自动更新地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +481,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -532,12 +535,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="6">
-        <v>45106</v>
+        <v>45111</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>10</v>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1C6FAB-F4D4-4E74-A4A6-5808CAFB4BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15DC507-116D-42B0-8B29-3358B0CFE61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,14 @@
 4、增加积木块编程错误时闪烁效果
 5、增加降落位置碰撞风险提示
 6、修改程序自动更新地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改基站一键标定协议</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -546,6 +554,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6">
+        <v>45118</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15DC507-116D-42B0-8B29-3358B0CFE61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA8E7A1-8E5C-40AE-A319-1EC51432FE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,7 +99,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、修改基站一键标定协议</t>
+    <t>1、修改基站一键标定协议
+2、增加舞步最大250条限制
+3、增加无人机设备列表最大限制40台
+4、上传舞步过程中禁止设备列表中右键菜单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +492,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -554,7 +557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA8E7A1-8E5C-40AE-A319-1EC51432FE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964D2C8C-68E0-4A65-8357-5D79D6A4B7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,8 @@
     <t>1、修改基站一键标定协议
 2、增加舞步最大250条限制
 3、增加无人机设备列表最大限制40台
-4、上传舞步过程中禁止设备列表中右键菜单</t>
+4、上传舞步过程中禁止设备列表中右键菜单
+5、增加自动删除7天前的旧日志文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -562,7 +563,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="6">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>12</v>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964D2C8C-68E0-4A65-8357-5D79D6A4B7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDA8724-9FE1-44DE-9245-22AED4C74827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,17 @@
 3、增加无人机设备列表最大限制40台
 4、上传舞步过程中禁止设备列表中右键菜单
 5、增加自动删除7天前的旧日志文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、增加无人机设备ID读取
+2、支持Win7系统使用，但是运行三维仿真需要系统安装全部补丁包
+3、软件安装时三维依赖库安装
+4、调整基站标定过程，增加协议包完整性验证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -569,6 +580,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:3" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45138</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDA8724-9FE1-44DE-9245-22AED4C74827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DCB0EE-2DC3-470F-AFBD-B561346BC57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,8 @@
     <t>1、增加无人机设备ID读取
 2、支持Win7系统使用，但是运行三维仿真需要系统安装全部补丁包
 3、软件安装时三维依赖库安装
-4、调整基站标定过程，增加协议包完整性验证</t>
+4、调整基站标定过程，增加协议包完整性验证
+5、基站标定增加二维网格坐标动态展示基站位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -580,12 +581,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="6">
-        <v>45138</v>
+        <v>45140</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>14</v>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DCB0EE-2DC3-470F-AFBD-B561346BC57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B610ADBE-3159-4C49-A5E1-73C66F7137E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,8 +112,8 @@
   </si>
   <si>
     <t>1、增加无人机设备ID读取
-2、支持Win7系统使用，但是运行三维仿真需要系统安装全部补丁包
-3、软件安装时三维依赖库安装
+2、Python降级到3.8，支持Win7系统使用，但是运行三维仿真需要系统安装全部补丁包
+3、软件安装时三维依赖库安装调整到使用时再安装
 4、调整基站标定过程，增加协议包完整性验证
 5、基站标定增加二维网格坐标动态展示基站位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -505,7 +505,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -581,7 +581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B610ADBE-3159-4C49-A5E1-73C66F7137E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D32F51E-7348-49C2-896C-4BDF8F73B7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,17 @@
 3、软件安装时三维依赖库安装调整到使用时再安装
 4、调整基站标定过程，增加协议包完整性验证
 5、基站标定增加二维网格坐标动态展示基站位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修复另存为后配置未同步修改问题，避免造成下次打开另存为之前的项目
+2、修改初始位置范围为10厘米，当上传舞步及起飞前无人机放置在初始位置10厘米内
+3、增加三维仿真窗口关闭时是否完成提示
+4、修改打开项目时增加设备方式，避免来回切换设备造成积木块覆盖问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -592,6 +603,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" spans="1:3" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45147</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D32F51E-7348-49C2-896C-4BDF8F73B7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D53CD92-815A-456A-B3E7-848F86452852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,16 @@
 2、修改初始位置范围为10厘米，当上传舞步及起飞前无人机放置在初始位置10厘米内
 3、增加三维仿真窗口关闭时是否完成提示
 4、修改打开项目时增加设备方式，避免来回切换设备造成积木块覆盖问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改无人机通讯协议，增加无人机标签
+2、无人机名称Tip框显示属性信息
+3、增加界面显示三维仿真及基站标定是否完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -614,6 +624,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="1:3" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45149</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D53CD92-815A-456A-B3E7-848F86452852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F742E124-18C0-439E-92A5-B71FFAB6E57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,7 +136,9 @@
   <si>
     <t>1、修改无人机通讯协议，增加无人机标签
 2、无人机名称Tip框显示属性信息
-3、增加界面显示三维仿真及基站标定是否完成</t>
+3、增加界面显示三维仿真及基站标定是否完成
+4、增加无人机上下重叠舞步验证
+5、修改为当无人机有碰撞时也可以进行三维仿真</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -624,12 +626,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="6">
-        <v>45149</v>
+        <v>45150</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>18</v>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F742E124-18C0-439E-92A5-B71FFAB6E57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F5B99F-6568-4A51-8899-F52CE4D36435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,8 @@
 2、无人机名称Tip框显示属性信息
 3、增加界面显示三维仿真及基站标定是否完成
 4、增加无人机上下重叠舞步验证
-5、修改为当无人机有碰撞时也可以进行三维仿真</t>
+5、修改为当无人机有碰撞时也可以进行三维仿真
+6、基站校准时只判断4个基站位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +529,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -626,12 +627,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="6">
-        <v>45150</v>
+        <v>45154</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>18</v>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F5B99F-6568-4A51-8899-F52CE4D36435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA4BE4D-F052-4ED1-BCD3-D07261675160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,26 @@
 4、增加无人机上下重叠舞步验证
 5、修改为当无人机有碰撞时也可以进行三维仿真
 6、基站校准时只判断4个基站位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、增加UWB基站通讯模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修复UWB协议数据解析错误
+2、增加UWB基站连接状态显示
+3、重新处理定桩授时同步判断
+4、在上传舞步前增加无人机标签判断
+5、增加自定义更新程序版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -638,6 +658,28 @@
         <v>18</v>
       </c>
     </row>
+    <row r="10" spans="1:3" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6">
+        <v>45170</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6">
+        <v>45177</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA4BE4D-F052-4ED1-BCD3-D07261675160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0437300-C038-4237-B7CE-010ABC8F810F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,7 +159,8 @@
 2、增加UWB基站连接状态显示
 3、重新处理定桩授时同步判断
 4、在上传舞步前增加无人机标签判断
-5、增加自定义更新程序版本</t>
+5、增加自定义更新程序版本
+6、三维预览中增加无人机名称显示与隐藏控制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,7 +550,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0437300-C038-4237-B7CE-010ABC8F810F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6239A7-A53D-4012-A832-15971ED8DA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,17 @@
 4、在上传舞步前增加无人机标签判断
 5、增加自定义更新程序版本
 6、三维预览中增加无人机名称显示与隐藏控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、调整三维预览中无人机灯光亮度
+2、调整三维预览中无人机名称字体大小
+3、修复积木块中因加入变量后自动有空行无法检查通过问题
+4、修改升级地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,9 +558,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -681,6 +692,17 @@
         <v>22</v>
       </c>
     </row>
+    <row r="12" spans="1:3" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="6">
+        <v>45252</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6239A7-A53D-4012-A832-15971ED8DA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C022BEA1-9D6C-42D9-B491-361D200902C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,37 @@
 2、调整三维预览中无人机名称字体大小
 3、修复积木块中因加入变量后自动有空行无法检查通过问题
 4、修改升级地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、视觉无人机
+2、合并视觉与WIFI程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、增加起始无人机型号选择界面
+2、更换P185三维模型
+3、增加识别二维码选择模块
+4、增加降落到具体位置模块
+5、增加识别模块限制条件判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、blockly中增加识别二维码积木块及降落到指定位置
+2、三维仿真中增加物体投放模拟
+3、兼容python编程识别二维码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -703,6 +734,39 @@
         <v>24</v>
       </c>
     </row>
+    <row r="13" spans="1:3" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6">
+        <v>45344</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6">
+        <v>45355</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="6">
+        <v>45373</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C022BEA1-9D6C-42D9-B491-361D200902C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888F8AC3-9C83-4400-964D-65388354CAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,28 @@
     <t>1、blockly中增加识别二维码积木块及降落到指定位置
 2、三维仿真中增加物体投放模拟
 3、兼容python编程识别二维码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、blockly中增加文字颜色及文字显示时长
+2、三维中同步展示无人机文字效果
+3、音乐时长最长改为10分钟
+4、新建项目时使用默认音乐文件
+5、修改校准时示例图
+6、项目属性中场地改为使用地毯总长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改无人机通讯协议，起飞积木块使用单独ID
+2、降落增加降落速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -767,6 +789,28 @@
         <v>30</v>
       </c>
     </row>
+    <row r="16" spans="1:3" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="6">
+        <v>45391</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="6">
+        <v>45393</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888F8AC3-9C83-4400-964D-65388354CAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F215C92D-5B20-4305-94D1-ED1BECA19ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +225,32 @@
   <si>
     <t>1、修改无人机通讯协议，起飞积木块使用单独ID
 2、降落增加降落速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、增加视觉固件更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改最大飞行速度为1米每秒
+2、修改电量显示问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、添加视觉测试指令
+2、屏蔽下降速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -811,6 +837,39 @@
         <v>34</v>
       </c>
     </row>
+    <row r="18" spans="1:3" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="6">
+        <v>45393</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="6">
+        <v>45393</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="6">
+        <v>45393</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F215C92D-5B20-4305-94D1-ED1BECA19ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC84435B-13F5-4CEE-BEE2-80E2481B49A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,10 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、增加视觉固件更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、修改最大飞行速度为1米每秒
 2、修改电量显示问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +247,22 @@
   <si>
     <t>1、添加视觉测试指令
 2、屏蔽下降速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、增加视觉固件更新
+2、增加起飞准备错误提示
+3、实时位置改为调试模型下显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、LED灯光只保留点亮与熄灭
+2、暂时不发送文字航点到无人机
+3、屏蔽旋转积木块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -842,10 +854,10 @@
         <v>35</v>
       </c>
       <c r="B18" s="6">
-        <v>45393</v>
+        <v>45398</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -853,21 +865,32 @@
         <v>36</v>
       </c>
       <c r="B19" s="6">
-        <v>45393</v>
+        <v>45401</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="6">
-        <v>45393</v>
+        <v>45406</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="6">
+        <v>45410</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC84435B-13F5-4CEE-BEE2-80E2481B49A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56DB794-3CAB-4BF6-8E3D-440E8E9875C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,12 +276,22 @@
 3、屏蔽旋转积木块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>3.2.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修改固件升级无法连接设备问题
+2、安装包中增加内部授权文件
+3、修改无人机上传航点时0号航点默认标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +301,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -317,17 +347,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -342,11 +361,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -360,14 +388,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,10 +674,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -662,22 +688,22 @@
     <col min="3" max="3" width="67.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="117.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>45077</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -685,212 +711,223 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="138" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>45086</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>45097</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>45111</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>45119</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>45140</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>45147</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>45154</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>45170</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>45177</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>45252</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="3">
         <v>45344</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="3">
         <v>45355</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="3">
         <v>45373</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="3">
         <v>45391</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:3" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="3">
         <v>45393</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:3" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="3">
         <v>45398</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:3" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="3">
         <v>45401</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:3" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="3">
         <v>45406</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="3">
         <v>45410</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="4" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45434</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56DB794-3CAB-4BF6-8E3D-440E8E9875C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C135FBC-60C2-45FA-B5E2-DDE8CDCE03F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,7 +283,17 @@
   <si>
     <t>1、修改固件升级无法连接设备问题
 2、安装包中增加内部授权文件
-3、修改无人机上传航点时0号航点默认标识</t>
+3、修改无人机上传航点时0号航点默认标识
+4、屏蔽LED相关函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修复识别二维码编号错误检查通过问题
+2、修复打开工程默认目录错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,11 +684,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -919,7 +929,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -928,6 +938,17 @@
       </c>
       <c r="C22" s="4" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45447</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C135FBC-60C2-45FA-B5E2-DDE8CDCE03F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C134F67D-C5EE-4CE8-B5D2-83DEA182F208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +294,18 @@
   <si>
     <t>1、修复识别二维码编号错误检查通过问题
 2、修复打开工程默认目录错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、增加实时记录无人机飞行位置
+2、增加PythonApi说明界面
+3、增加无人机固件更新
+4、无人机断开重连改为固定3秒连一次
+5、修复Python编写时投放动作参数解析出错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,11 +696,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -951,6 +963,17 @@
         <v>46</v>
       </c>
     </row>
+    <row r="24" spans="1:3" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45485</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C134F67D-C5EE-4CE8-B5D2-83DEA182F208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB2E83E-EE6C-42B9-97CB-520750062DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,6 +306,14 @@
 3、增加无人机固件更新
 4、无人机断开重连改为固定3秒连一次
 5、修复Python编写时投放动作参数解析出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI4.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、增加AI识别物体功能，需要无人机刷入AI固件及视觉功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,11 +704,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -974,6 +982,17 @@
         <v>48</v>
       </c>
     </row>
+    <row r="25" spans="1:3" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45631</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB2E83E-EE6C-42B9-97CB-520750062DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D24FF5A-D495-4070-A7DA-E1A8B1A397C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,6 +314,15 @@
   </si>
   <si>
     <t>1、增加AI识别物体功能，需要无人机刷入AI固件及视觉功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI4.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、修复编程积木块中标定点范围判断错误
+2、三维模拟中增加动态添加障碍物功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,11 +713,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -993,6 +1002,17 @@
         <v>50</v>
       </c>
     </row>
+    <row r="26" spans="1:3" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45707</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D24FF5A-D495-4070-A7DA-E1A8B1A397C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814B3E6B-800A-4AB2-9931-F235B8FCF4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,6 +323,17 @@
   <si>
     <t>1、修复编程积木块中标定点范围判断错误
 2、三维模拟中增加动态添加障碍物功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI4.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、增加视觉板状态信息查看，地图修改，视觉程序更新
+2、增加视觉板自动校准
+3、起飞电量限制改为最低30%
+4、调整计算电池电量百分比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -713,11 +724,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1013,6 +1024,17 @@
         <v>52</v>
       </c>
     </row>
+    <row r="27" spans="1:3" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45736</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/install/无人机炫舞编程版本更新记录.xlsx
+++ b/install/无人机炫舞编程版本更新记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fly\UAVManage\install\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814B3E6B-800A-4AB2-9931-F235B8FCF4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3849C7-35F6-47E7-8521-1CF2E69B87CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="525" windowWidth="20190" windowHeight="14955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,6 +334,15 @@
 2、增加视觉板自动校准
 3、起飞电量限制改为最低30%
 4、调整计算电池电量百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI4.3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、增加python编辑器中错误提示信息
+2、增加python编辑器中api函数高亮显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,11 +733,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1035,6 +1044,17 @@
         <v>54</v>
       </c>
     </row>
+    <row r="28" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45757</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
